--- a/REGULAR/CASUAL-REGULAR FINAL/DE GUZMAN, MAYETTE DANO.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DE GUZMAN, MAYETTE DANO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C048F-CC9E-4457-A927-CE166C918594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D16E01-8013-4542-86E8-32A2F670A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>CSWDO</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2589,7 +2601,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -2967,12 +2979,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A15" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3137,7 +3149,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.167</v>
+        <v>13.417000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3147,7 +3159,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>11.167</v>
+        <v>17.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3377,13 +3389,15 @@
         <v>45138</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
@@ -3395,13 +3409,15 @@
         <v>45169</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -3413,13 +3429,15 @@
         <v>45199</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
@@ -3430,32 +3448,42 @@
       <c r="A24" s="40">
         <v>45230</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="39">
+        <v>1</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="48">
+        <v>45233</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>45260</v>
       </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3466,9 +3494,13 @@
       <c r="A26" s="40">
         <v>45291</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="39">
+        <v>3</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
@@ -3478,11 +3510,13 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
-        <v>45322</v>
+      <c r="A27" s="51" t="s">
+        <v>50</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3500,7 +3534,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3518,7 +3552,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3536,7 +3570,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3554,7 +3588,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3572,7 +3606,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3590,7 +3624,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3608,7 +3642,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3626,7 +3660,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3644,7 +3678,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3662,7 +3696,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3680,7 +3714,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3698,7 +3732,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3716,7 +3750,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3734,7 +3768,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3752,7 +3786,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3770,7 +3804,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3788,7 +3822,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3806,7 +3840,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3824,7 +3858,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3842,7 +3876,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3860,7 +3894,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3878,7 +3912,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3896,7 +3930,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3914,7 +3948,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3932,7 +3966,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3950,7 +3984,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3968,7 +4002,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3986,7 +4020,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4004,7 +4038,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4022,7 +4056,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4039,7 +4073,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>46234</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -5207,36 +5243,52 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="15"/>
       <c r="G132" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H132" s="43"/>
-      <c r="I132" s="49"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5256,7 +5308,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E64A6BD5-9E46-493B-A064-B4C750F398D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5284,7 +5336,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5402,7 +5454,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>22.334</v>
+        <v>30.834000000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
